--- a/filter.xlsx
+++ b/filter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lonerganresearch-my.sharepoint.com/personal/calvin_lonerganresearch_com_au/Documents/Repos/tableau-automation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="11_F25DC773A252ABDACC10480C195B4C005ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC3D7B43-72EC-419C-90B9-FBC49422C070}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="11_F25DC773A252ABDACC10480C195B4C005ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A1AD28B-82C0-4A38-8D0D-E8C20999C9BD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="171">
   <si>
     <t>Area</t>
   </si>
@@ -51,641 +51,512 @@
     <t>Bankstown</t>
   </si>
   <si>
+    <t>Blacktown</t>
+  </si>
+  <si>
+    <t>Burwood</t>
+  </si>
+  <si>
+    <t>Campsie</t>
+  </si>
+  <si>
+    <t>Central Metropolitan</t>
+  </si>
+  <si>
+    <t>Kings Cross</t>
+  </si>
+  <si>
+    <t>Mount Druitt</t>
+  </si>
+  <si>
+    <t>Parramatta</t>
+  </si>
+  <si>
+    <t>Riverstone</t>
+  </si>
+  <si>
+    <t>Ryde</t>
+  </si>
+  <si>
+    <t>South West Metropolitan</t>
+  </si>
+  <si>
+    <t>Surry Hills</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Wollongong</t>
+  </si>
+  <si>
+    <t>Albury</t>
+  </si>
+  <si>
+    <t>Ashfield</t>
+  </si>
+  <si>
+    <t>Bathurst</t>
+  </si>
+  <si>
+    <t>Broken Hill</t>
+  </si>
+  <si>
+    <t>Cabramatta</t>
+  </si>
+  <si>
+    <t>Castle Hill</t>
+  </si>
+  <si>
+    <t>Coffs Harbour</t>
+  </si>
+  <si>
+    <t>Eastwood</t>
+  </si>
+  <si>
+    <t>Forster</t>
+  </si>
+  <si>
+    <t>Frenchs Forest</t>
+  </si>
+  <si>
+    <t>Glebe</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Gosford</t>
+  </si>
+  <si>
+    <t>Katoomba</t>
+  </si>
+  <si>
+    <t>Kempsey</t>
+  </si>
+  <si>
+    <t>Kogarah</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Macquarie Fields</t>
+  </si>
+  <si>
+    <t>Maroubra</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Merrylands</t>
+  </si>
+  <si>
+    <t>Mosman</t>
+  </si>
+  <si>
+    <t>Narellan</t>
+  </si>
+  <si>
+    <t>Newtown</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Penrith</t>
+  </si>
+  <si>
+    <t>Revesby</t>
+  </si>
+  <si>
+    <t>Rose Bay</t>
+  </si>
+  <si>
+    <t>Singleton</t>
+  </si>
+  <si>
+    <t>Sutherland</t>
+  </si>
+  <si>
+    <t>The Rocks</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Walgett</t>
+  </si>
+  <si>
+    <t>Windsor</t>
+  </si>
+  <si>
+    <t>Armidale</t>
+  </si>
+  <si>
+    <t>Batemans Bay</t>
+  </si>
+  <si>
+    <t>Byron Bay</t>
+  </si>
+  <si>
+    <t>Dubbo</t>
+  </si>
+  <si>
+    <t>Lismore</t>
+  </si>
+  <si>
+    <t>Nelson Bay</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Tamworth</t>
+  </si>
+  <si>
+    <t>Griffith</t>
+  </si>
+  <si>
+    <t>Wyong</t>
+  </si>
+  <si>
+    <t>Bass Hill</t>
+  </si>
+  <si>
+    <t>Balmain</t>
+  </si>
+  <si>
+    <t>Campbelltown</t>
+  </si>
+  <si>
+    <t>Chatswood</t>
+  </si>
+  <si>
+    <t>Gladesville</t>
+  </si>
+  <si>
+    <t>Granville</t>
+  </si>
+  <si>
+    <t>Green Valley</t>
+  </si>
+  <si>
+    <t>Hornsby</t>
+  </si>
+  <si>
+    <t>Marrickville</t>
+  </si>
+  <si>
+    <t>Mona Vale</t>
+  </si>
+  <si>
+    <t>Prairiewood</t>
+  </si>
+  <si>
+    <t>Randwick</t>
+  </si>
+  <si>
+    <t>Redfern</t>
+  </si>
+  <si>
+    <t>Riverwood</t>
+  </si>
+  <si>
+    <t>Springwood</t>
+  </si>
+  <si>
+    <t>St Marys</t>
+  </si>
+  <si>
+    <t>Waverley</t>
+  </si>
+  <si>
+    <t>Ballina</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t>Bourke</t>
+  </si>
+  <si>
+    <t>Day Street</t>
+  </si>
+  <si>
+    <t>Grafton</t>
+  </si>
+  <si>
+    <t>Inverell</t>
+  </si>
+  <si>
+    <t>Lithgow</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Moss Vale</t>
+  </si>
+  <si>
+    <t>Muswellbrook</t>
+  </si>
+  <si>
+    <t>Parkes</t>
+  </si>
+  <si>
+    <t>Port Macquarie</t>
+  </si>
+  <si>
+    <t>Raymond Terrace</t>
+  </si>
+  <si>
+    <t>Taree</t>
+  </si>
+  <si>
+    <t>Toukley</t>
+  </si>
+  <si>
+    <t>Tweed Heads</t>
+  </si>
+  <si>
+    <t>Nowra</t>
+  </si>
+  <si>
+    <t>Waratah</t>
+  </si>
+  <si>
+    <t>Oak Flats</t>
+  </si>
+  <si>
+    <t>Woy Woy</t>
+  </si>
+  <si>
+    <t>Queanbeyan</t>
+  </si>
+  <si>
+    <t>Wagga Wagga</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Cronulla</t>
+  </si>
+  <si>
+    <t>Dee Why</t>
+  </si>
+  <si>
+    <t>Fairfield</t>
+  </si>
+  <si>
+    <t>Hurstville</t>
+  </si>
+  <si>
+    <t>Maitland</t>
+  </si>
+  <si>
+    <t>Moree</t>
+  </si>
+  <si>
+    <t>North Sydney</t>
+  </si>
+  <si>
+    <t>Paddington</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>North West Metropolitan</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>PD - Murray River</t>
+  </si>
+  <si>
+    <t>PAC - Burwood</t>
+  </si>
+  <si>
+    <t>PAC - Auburn</t>
+  </si>
+  <si>
+    <t>PD - Chifley</t>
+  </si>
+  <si>
+    <t>PAC - Blacktown</t>
+  </si>
+  <si>
+    <t>PD - Barrier</t>
+  </si>
+  <si>
+    <t>PAC - Fairfield City</t>
+  </si>
+  <si>
+    <t>PAC - Campsie</t>
+  </si>
+  <si>
+    <t>PAC - The Hills</t>
+  </si>
+  <si>
+    <t>PD - Coffs/Clarence</t>
+  </si>
+  <si>
+    <t>PAC - Ryde</t>
+  </si>
+  <si>
+    <t>PD - Manning Great Lakes</t>
+  </si>
+  <si>
+    <t>PAC - Northern Beaches</t>
+  </si>
+  <si>
+    <t>PAC - Leichhardt</t>
+  </si>
+  <si>
+    <t>PAC - Kuring-gai</t>
+  </si>
+  <si>
+    <t>PD - Brisbane Water</t>
+  </si>
+  <si>
+    <t>PAC - Blue Mountains</t>
+  </si>
+  <si>
+    <t>PD - Mid North Coast</t>
+  </si>
+  <si>
+    <t>PAC - Kings Cross</t>
+  </si>
+  <si>
+    <t>PAC - St George</t>
+  </si>
+  <si>
+    <t>PAC - Liverpool City</t>
+  </si>
+  <si>
+    <t>PAC - Campbelltown City</t>
+  </si>
+  <si>
+    <t>PAC - Eastern Beaches</t>
+  </si>
+  <si>
+    <t>PAC - South Sydney</t>
+  </si>
+  <si>
+    <t>PAC - Cumberland</t>
+  </si>
+  <si>
+    <t>PAC - North Shore</t>
+  </si>
+  <si>
+    <t>PAC - Mount Druitt</t>
+  </si>
+  <si>
+    <t>PAC - Camden</t>
+  </si>
+  <si>
+    <t>PAC - Inner West</t>
+  </si>
+  <si>
+    <t>PD - Central West</t>
+  </si>
+  <si>
+    <t>PAC - Parramatta</t>
+  </si>
+  <si>
+    <t>PAC - Nepean</t>
+  </si>
+  <si>
+    <t>PAC - Bankstown</t>
+  </si>
+  <si>
+    <t>PAC - Riverstone</t>
+  </si>
+  <si>
+    <t>PAC - Eastern Suburbs</t>
+  </si>
+  <si>
+    <t>PD - Hunter Valley</t>
+  </si>
+  <si>
+    <t>PAC - Surry Hills</t>
+  </si>
+  <si>
+    <t>PAC - Sutherland Shire</t>
+  </si>
+  <si>
+    <t>PAC - Sydney City</t>
+  </si>
+  <si>
+    <t>PD - Lake Macquarie</t>
+  </si>
+  <si>
+    <t>PD - Central North</t>
+  </si>
+  <si>
+    <t>PAC - Hawkesbury</t>
+  </si>
+  <si>
+    <t>PD - New England</t>
+  </si>
+  <si>
+    <t>PD - South Coast</t>
+  </si>
+  <si>
+    <t>PD - Tweed/Byron</t>
+  </si>
+  <si>
+    <t>PD - Orana Mid-Western</t>
+  </si>
+  <si>
+    <t>PD - Richmond</t>
+  </si>
+  <si>
+    <t>PD - Port Stephens/Hunter</t>
+  </si>
+  <si>
+    <t>PD - Newcastle City</t>
+  </si>
+  <si>
+    <t>PD - Oxley</t>
+  </si>
+  <si>
+    <t>PD - Murrumbidgee</t>
+  </si>
+  <si>
+    <t>PD - Tuggerah Lakes</t>
+  </si>
+  <si>
+    <t>PD - The Hume</t>
+  </si>
+  <si>
+    <t>PD - Lake Illawarra</t>
+  </si>
+  <si>
+    <t>PD - Monaro</t>
+  </si>
+  <si>
+    <t>PD - Riverina</t>
+  </si>
+  <si>
+    <t>PD - Wollongong</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
     <t>Barrier</t>
-  </si>
-  <si>
-    <t>Blacktown</t>
-  </si>
-  <si>
-    <t>Blue Mountains</t>
-  </si>
-  <si>
-    <t>Brisbane Water</t>
-  </si>
-  <si>
-    <t>Burwood</t>
-  </si>
-  <si>
-    <t>Camden</t>
-  </si>
-  <si>
-    <t>Campbelltown City</t>
-  </si>
-  <si>
-    <t>Campsie</t>
-  </si>
-  <si>
-    <t>Central Metropolitan</t>
-  </si>
-  <si>
-    <t>Central North</t>
-  </si>
-  <si>
-    <t>Central West</t>
-  </si>
-  <si>
-    <t>Chifley</t>
-  </si>
-  <si>
-    <t>Cumberland</t>
-  </si>
-  <si>
-    <t>Eastern Beaches</t>
-  </si>
-  <si>
-    <t>Fairfield City</t>
-  </si>
-  <si>
-    <t>Hawkesbury</t>
-  </si>
-  <si>
-    <t>Hunter Valley</t>
-  </si>
-  <si>
-    <t>Inner West</t>
-  </si>
-  <si>
-    <t>Kings Cross</t>
-  </si>
-  <si>
-    <t>Kuring-gai</t>
-  </si>
-  <si>
-    <t>Lake Illawarra</t>
-  </si>
-  <si>
-    <t>Lake Macquarie</t>
-  </si>
-  <si>
-    <t>Leichhardt</t>
-  </si>
-  <si>
-    <t>Liverpool City</t>
-  </si>
-  <si>
-    <t>Manning Great Lakes</t>
-  </si>
-  <si>
-    <t>Mid North Coast</t>
-  </si>
-  <si>
-    <t>Monaro</t>
-  </si>
-  <si>
-    <t>Mount Druitt</t>
-  </si>
-  <si>
-    <t>Murray River</t>
-  </si>
-  <si>
-    <t>Murrumbidgee</t>
-  </si>
-  <si>
-    <t>Nepean</t>
-  </si>
-  <si>
-    <t>New England</t>
-  </si>
-  <si>
-    <t>Newcastle City</t>
-  </si>
-  <si>
-    <t>North Shore</t>
-  </si>
-  <si>
-    <t>Northern Beaches</t>
-  </si>
-  <si>
-    <t>Orana Mid-Western</t>
-  </si>
-  <si>
-    <t>Oxley</t>
-  </si>
-  <si>
-    <t>Parramatta</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Riverina</t>
-  </si>
-  <si>
-    <t>Riverstone</t>
-  </si>
-  <si>
-    <t>Ryde</t>
-  </si>
-  <si>
-    <t>South Coast</t>
-  </si>
-  <si>
-    <t>South Sydney</t>
-  </si>
-  <si>
-    <t>South West Metropolitan</t>
-  </si>
-  <si>
-    <t>Surry Hills</t>
-  </si>
-  <si>
-    <t>Sutherland Shire</t>
-  </si>
-  <si>
-    <t>Sydney City</t>
-  </si>
-  <si>
-    <t>The Hills</t>
-  </si>
-  <si>
-    <t>The Hume</t>
-  </si>
-  <si>
-    <t>Tuggerah Lakes</t>
-  </si>
-  <si>
-    <t>Western</t>
-  </si>
-  <si>
-    <t>Wollongong</t>
-  </si>
-  <si>
-    <t>Albury</t>
-  </si>
-  <si>
-    <t>Ashfield</t>
-  </si>
-  <si>
-    <t>Bathurst</t>
-  </si>
-  <si>
-    <t>Broken Hill</t>
-  </si>
-  <si>
-    <t>Cabramatta</t>
-  </si>
-  <si>
-    <t>Castle Hill</t>
-  </si>
-  <si>
-    <t>Coffs Harbour</t>
-  </si>
-  <si>
-    <t>Eastwood</t>
-  </si>
-  <si>
-    <t>Forster</t>
-  </si>
-  <si>
-    <t>Frenchs Forest</t>
-  </si>
-  <si>
-    <t>Glebe</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>Gosford</t>
-  </si>
-  <si>
-    <t>Katoomba</t>
-  </si>
-  <si>
-    <t>Kempsey</t>
-  </si>
-  <si>
-    <t>Kogarah</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Macquarie Fields</t>
-  </si>
-  <si>
-    <t>Maroubra</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Merrylands</t>
-  </si>
-  <si>
-    <t>Mosman</t>
-  </si>
-  <si>
-    <t>Narellan</t>
-  </si>
-  <si>
-    <t>Newtown</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Penrith</t>
-  </si>
-  <si>
-    <t>Revesby</t>
-  </si>
-  <si>
-    <t>Rose Bay</t>
-  </si>
-  <si>
-    <t>Singleton</t>
-  </si>
-  <si>
-    <t>Sutherland</t>
-  </si>
-  <si>
-    <t>The Rocks</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>Walgett</t>
-  </si>
-  <si>
-    <t>Windsor</t>
-  </si>
-  <si>
-    <t>Armidale</t>
-  </si>
-  <si>
-    <t>Batemans Bay</t>
-  </si>
-  <si>
-    <t>Byron Bay</t>
-  </si>
-  <si>
-    <t>Dubbo</t>
-  </si>
-  <si>
-    <t>Lismore</t>
-  </si>
-  <si>
-    <t>Nelson Bay</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Tamworth</t>
-  </si>
-  <si>
-    <t>Griffith</t>
-  </si>
-  <si>
-    <t>Wyong</t>
-  </si>
-  <si>
-    <t>Bass Hill</t>
-  </si>
-  <si>
-    <t>Balmain</t>
-  </si>
-  <si>
-    <t>Campbelltown</t>
-  </si>
-  <si>
-    <t>Chatswood</t>
-  </si>
-  <si>
-    <t>Gladesville</t>
-  </si>
-  <si>
-    <t>Granville</t>
-  </si>
-  <si>
-    <t>Green Valley</t>
-  </si>
-  <si>
-    <t>Hornsby</t>
-  </si>
-  <si>
-    <t>Marrickville</t>
-  </si>
-  <si>
-    <t>Mona Vale</t>
-  </si>
-  <si>
-    <t>Prairiewood</t>
-  </si>
-  <si>
-    <t>Randwick</t>
-  </si>
-  <si>
-    <t>Redfern</t>
-  </si>
-  <si>
-    <t>Riverwood</t>
-  </si>
-  <si>
-    <t>Springwood</t>
-  </si>
-  <si>
-    <t>St Marys</t>
-  </si>
-  <si>
-    <t>Waverley</t>
-  </si>
-  <si>
-    <t>Ballina</t>
-  </si>
-  <si>
-    <t>Belmont</t>
-  </si>
-  <si>
-    <t>Bourke</t>
-  </si>
-  <si>
-    <t>Day Street</t>
-  </si>
-  <si>
-    <t>Grafton</t>
-  </si>
-  <si>
-    <t>Inverell</t>
-  </si>
-  <si>
-    <t>Lithgow</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>Moss Vale</t>
-  </si>
-  <si>
-    <t>Muswellbrook</t>
-  </si>
-  <si>
-    <t>Parkes</t>
-  </si>
-  <si>
-    <t>Port Macquarie</t>
-  </si>
-  <si>
-    <t>Raymond Terrace</t>
-  </si>
-  <si>
-    <t>Taree</t>
-  </si>
-  <si>
-    <t>Toukley</t>
-  </si>
-  <si>
-    <t>Tweed Heads</t>
-  </si>
-  <si>
-    <t>Nowra</t>
-  </si>
-  <si>
-    <t>Waratah</t>
-  </si>
-  <si>
-    <t>Oak Flats</t>
-  </si>
-  <si>
-    <t>Woy Woy</t>
-  </si>
-  <si>
-    <t>Queanbeyan</t>
-  </si>
-  <si>
-    <t>Wagga Wagga</t>
-  </si>
-  <si>
-    <t>Casino</t>
-  </si>
-  <si>
-    <t>Cronulla</t>
-  </si>
-  <si>
-    <t>Dee Why</t>
-  </si>
-  <si>
-    <t>Fairfield</t>
-  </si>
-  <si>
-    <t>Hurstville</t>
-  </si>
-  <si>
-    <t>Maitland</t>
-  </si>
-  <si>
-    <t>Moree</t>
-  </si>
-  <si>
-    <t>North Sydney</t>
-  </si>
-  <si>
-    <t>Paddington</t>
-  </si>
-  <si>
-    <t>Southern</t>
-  </si>
-  <si>
-    <t>North West Metropolitan</t>
-  </si>
-  <si>
-    <t>Northern</t>
-  </si>
-  <si>
-    <t>PD - Murray River</t>
-  </si>
-  <si>
-    <t>PAC - Burwood</t>
-  </si>
-  <si>
-    <t>PAC - Auburn</t>
-  </si>
-  <si>
-    <t>PD - Chifley</t>
-  </si>
-  <si>
-    <t>PAC - Blacktown</t>
-  </si>
-  <si>
-    <t>PD - Barrier</t>
-  </si>
-  <si>
-    <t>PAC - Fairfield City</t>
-  </si>
-  <si>
-    <t>PAC - Campsie</t>
-  </si>
-  <si>
-    <t>PAC - The Hills</t>
-  </si>
-  <si>
-    <t>PD - Coffs/Clarence</t>
-  </si>
-  <si>
-    <t>PAC - Ryde</t>
-  </si>
-  <si>
-    <t>PD - Manning Great Lakes</t>
-  </si>
-  <si>
-    <t>PAC - Northern Beaches</t>
-  </si>
-  <si>
-    <t>PAC - Leichhardt</t>
-  </si>
-  <si>
-    <t>PAC - Kuring-gai</t>
-  </si>
-  <si>
-    <t>PD - Brisbane Water</t>
-  </si>
-  <si>
-    <t>PAC - Blue Mountains</t>
-  </si>
-  <si>
-    <t>PD - Mid North Coast</t>
-  </si>
-  <si>
-    <t>PAC - Kings Cross</t>
-  </si>
-  <si>
-    <t>PAC - St George</t>
-  </si>
-  <si>
-    <t>PAC - Liverpool City</t>
-  </si>
-  <si>
-    <t>PAC - Campbelltown City</t>
-  </si>
-  <si>
-    <t>PAC - Eastern Beaches</t>
-  </si>
-  <si>
-    <t>PAC - South Sydney</t>
-  </si>
-  <si>
-    <t>PAC - Cumberland</t>
-  </si>
-  <si>
-    <t>PAC - North Shore</t>
-  </si>
-  <si>
-    <t>PAC - Mount Druitt</t>
-  </si>
-  <si>
-    <t>PAC - Camden</t>
-  </si>
-  <si>
-    <t>PAC - Inner West</t>
-  </si>
-  <si>
-    <t>PD - Central West</t>
-  </si>
-  <si>
-    <t>PAC - Parramatta</t>
-  </si>
-  <si>
-    <t>PAC - Nepean</t>
-  </si>
-  <si>
-    <t>PAC - Bankstown</t>
-  </si>
-  <si>
-    <t>PAC - Riverstone</t>
-  </si>
-  <si>
-    <t>PAC - Eastern Suburbs</t>
-  </si>
-  <si>
-    <t>PD - Hunter Valley</t>
-  </si>
-  <si>
-    <t>PAC - Surry Hills</t>
-  </si>
-  <si>
-    <t>PAC - Sutherland Shire</t>
-  </si>
-  <si>
-    <t>PAC - Sydney City</t>
-  </si>
-  <si>
-    <t>PD - Lake Macquarie</t>
-  </si>
-  <si>
-    <t>PD - Central North</t>
-  </si>
-  <si>
-    <t>PAC - Hawkesbury</t>
-  </si>
-  <si>
-    <t>PD - New England</t>
-  </si>
-  <si>
-    <t>PD - South Coast</t>
-  </si>
-  <si>
-    <t>PD - Tweed/Byron</t>
-  </si>
-  <si>
-    <t>PD - Orana Mid-Western</t>
-  </si>
-  <si>
-    <t>PD - Richmond</t>
-  </si>
-  <si>
-    <t>PD - Port Stephens/Hunter</t>
-  </si>
-  <si>
-    <t>PD - Newcastle City</t>
-  </si>
-  <si>
-    <t>PD - Oxley</t>
-  </si>
-  <si>
-    <t>PD - Murrumbidgee</t>
-  </si>
-  <si>
-    <t>PD - Tuggerah Lakes</t>
-  </si>
-  <si>
-    <t>PD - The Hume</t>
-  </si>
-  <si>
-    <t>PD - Lake Illawarra</t>
-  </si>
-  <si>
-    <t>PD - Monaro</t>
-  </si>
-  <si>
-    <t>PD - Riverina</t>
-  </si>
-  <si>
-    <t>PD - Wollongong</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>Coffs/Clarence</t>
-  </si>
-  <si>
-    <t>Port Stephens/Hunter</t>
-  </si>
-  <si>
-    <t>Tweed/Byron</t>
-  </si>
-  <si>
-    <t>St George</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +568,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -725,9 +604,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1012,10 +892,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,520 +905,25 @@
     <col min="2" max="2" width="68.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="str">
-        <f>IF(OR(A2="Central Metro",A2="North West Metro",A2="Northern",A2="South West Metro",A2="Sydney",A2="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A2&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="str">
-        <f>IF(OR(A3="Central Metro",A3="North West Metro",A3="Northern",A3="South West Metro",A3="Sydney",A3="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A3&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <f>IF(OR(A4="Central Metro",A4="North West Metro",A4="Northern",A4="South West Metro",A4="Sydney",A4="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A4&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="str">
-        <f>IF(OR(A5="Central Metro",A5="North West Metro",A5="Northern",A5="South West Metro",A5="Sydney",A5="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A5&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="str">
-        <f>IF(OR(A6="Central Metro",A6="North West Metro",A6="Northern",A6="South West Metro",A6="Sydney",A6="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A6&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IF(OR(A7="Central Metro",A7="North West Metro",A7="Northern",A7="South West Metro",A7="Sydney",A7="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A7&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="str">
-        <f>IF(OR(A8="Central Metro",A8="North West Metro",A8="Northern",A8="South West Metro",A8="Sydney",A8="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A8&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="str">
-        <f>IF(OR(A9="Central Metro",A9="North West Metro",A9="Northern",A9="South West Metro",A9="Sydney",A9="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A9&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="str">
-        <f>IF(OR(A10="Central Metro",A10="North West Metro",A10="Northern",A10="South West Metro",A10="Sydney",A10="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A10&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="str">
-        <f>IF(OR(A11="Central Metro",A11="North West Metro",A11="Northern",A11="South West Metro",A11="Sydney",A11="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A11&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="str">
-        <f>IF(OR(A12="Central Metro",A12="North West Metro",A12="Northern",A12="South West Metro",A12="Sydney",A12="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A12&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="str">
-        <f>IF(OR(A13="Central Metro",A13="North West Metro",A13="Northern",A13="South West Metro",A13="Sydney",A13="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A13&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="str">
-        <f>IF(OR(A14="Central Metro",A14="North West Metro",A14="Northern",A14="South West Metro",A14="Sydney",A14="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A14&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="str">
-        <f>IF(OR(A16="Central Metro",A16="North West Metro",A16="Northern",A16="South West Metro",A16="Sydney",A16="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A16&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="str">
-        <f>IF(OR(A17="Central Metro",A17="North West Metro",A17="Northern",A17="South West Metro",A17="Sydney",A17="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A17&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="str">
-        <f>IF(OR(A18="Central Metro",A18="North West Metro",A18="Northern",A18="South West Metro",A18="Sydney",A18="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A18&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="str">
-        <f>IF(OR(A19="Central Metro",A19="North West Metro",A19="Northern",A19="South West Metro",A19="Sydney",A19="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A19&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="str">
-        <f>IF(OR(A20="Central Metro",A20="North West Metro",A20="Northern",A20="South West Metro",A20="Sydney",A20="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A20&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="str">
-        <f>IF(OR(A21="Central Metro",A21="North West Metro",A21="Northern",A21="South West Metro",A21="Sydney",A21="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A21&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="str">
-        <f>IF(OR(A22="Central Metro",A22="North West Metro",A22="Northern",A22="South West Metro",A22="Sydney",A22="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A22&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="str">
-        <f>IF(OR(A23="Central Metro",A23="North West Metro",A23="Northern",A23="South West Metro",A23="Sydney",A23="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A23&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="str">
-        <f>IF(OR(A24="Central Metro",A24="North West Metro",A24="Northern",A24="South West Metro",A24="Sydney",A24="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A24&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="str">
-        <f>IF(OR(A25="Central Metro",A25="North West Metro",A25="Northern",A25="South West Metro",A25="Sydney",A25="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A25&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="str">
-        <f>IF(OR(A26="Central Metro",A26="North West Metro",A26="Northern",A26="South West Metro",A26="Sydney",A26="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A26&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="str">
-        <f>IF(OR(A27="Central Metro",A27="North West Metro",A27="Northern",A27="South West Metro",A27="Sydney",A27="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A27&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>South West Metropolitan</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="str">
-        <f>IF(OR(A28="Central Metro",A28="North West Metro",A28="Northern",A28="South West Metro",A28="Sydney",A28="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A28&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="str">
-        <f>IF(OR(A29="Central Metro",A29="North West Metro",A29="Northern",A29="South West Metro",A29="Sydney",A29="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A29&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="str">
-        <f>IF(OR(A30="Central Metro",A30="North West Metro",A30="Northern",A30="South West Metro",A30="Sydney",A30="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A30&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="str">
-        <f>IF(OR(A31="Central Metro",A31="North West Metro",A31="Northern",A31="South West Metro",A31="Sydney",A31="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A31&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="str">
-        <f>IF(OR(A32="Central Metro",A32="North West Metro",A32="Northern",A32="South West Metro",A32="Sydney",A32="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A32&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="str">
-        <f>IF(OR(A33="Central Metro",A33="North West Metro",A33="Northern",A33="South West Metro",A33="Sydney",A33="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A33&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="str">
-        <f>IF(OR(A34="Central Metro",A34="North West Metro",A34="Northern",A34="South West Metro",A34="Sydney",A34="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A34&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="str">
-        <f>IF(OR(A35="Central Metro",A35="North West Metro",A35="Northern",A35="South West Metro",A35="Sydney",A35="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A35&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="str">
-        <f>IF(OR(A36="Central Metro",A36="North West Metro",A36="Northern",A36="South West Metro",A36="Sydney",A36="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A36&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="str">
-        <f>IF(OR(A37="Central Metro",A37="North West Metro",A37="Northern",A37="South West Metro",A37="Sydney",A37="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A37&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="str">
-        <f>IF(OR(A38="Central Metro",A38="North West Metro",A38="Northern",A38="South West Metro",A38="Sydney",A38="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A38&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="str">
-        <f>IF(OR(A39="Central Metro",A39="North West Metro",A39="Northern",A39="South West Metro",A39="Sydney",A39="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A39&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="str">
-        <f>IF(OR(A40="Central Metro",A40="North West Metro",A40="Northern",A40="South West Metro",A40="Sydney",A40="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A40&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Western</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="str">
-        <f>IF(OR(A41="Central Metro",A41="North West Metro",A41="Northern",A41="South West Metro",A41="Sydney",A41="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A41&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>211</v>
-      </c>
-      <c r="B42" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="str">
-        <f>IF(OR(A43="Central Metro",A43="North West Metro",A43="Northern",A43="South West Metro",A43="Sydney",A43="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A43&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="str">
-        <f>IF(OR(A44="Central Metro",A44="North West Metro",A44="Northern",A44="South West Metro",A44="Sydney",A44="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A44&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="str">
-        <f>IF(OR(A45="Central Metro",A45="North West Metro",A45="Northern",A45="South West Metro",A45="Sydney",A45="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A45&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="str">
-        <f>IF(OR(A46="Central Metro",A46="North West Metro",A46="Northern",A46="South West Metro",A46="Sydney",A46="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A46&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="str">
-        <f>IF(OR(A47="Central Metro",A47="North West Metro",A47="Northern",A47="South West Metro",A47="Sydney",A47="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A47&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="str">
-        <f>IF(OR(A48="Central Metro",A48="North West Metro",A48="Northern",A48="South West Metro",A48="Sydney",A48="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A48&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>213</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="str">
-        <f>IF(OR(A50="Central Metro",A50="North West Metro",A50="Northern",A50="South West Metro",A50="Sydney",A50="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A50&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="str">
-        <f>IF(OR(A51="Central Metro",A51="North West Metro",A51="Northern",A51="South West Metro",A51="Sydney",A51="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A51&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="str">
-        <f>IF(OR(A52="Central Metro",A52="North West Metro",A52="Northern",A52="South West Metro",A52="Sydney",A52="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A52&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Central Metropolitan</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="str">
-        <f>IF(OR(A53="Central Metro",A53="North West Metro",A53="Northern",A53="South West Metro",A53="Sydney",A53="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A53&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>North West Metropolitan</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="str">
-        <f>IF(OR(A54="Central Metro",A54="North West Metro",A54="Northern",A54="South West Metro",A54="Sydney",A54="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A54&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="str">
-        <f>IF(OR(A55="Central Metro",A55="North West Metro",A55="Northern",A55="South West Metro",A55="Sydney",A55="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A55&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Northern</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="str">
-        <f>IF(OR(A57="Central Metro",A57="North West Metro",A57="Northern",A57="South West Metro",A57="Sydney",A57="Western"),"NSW",_xlfn.XLOOKUP("*"&amp;A57&amp;"*",Sheet2!C:C,Sheet2!B:B,"Not Found",2))</f>
-        <v>Southern</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:C57">
-    <sortCondition ref="A2:A57"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C6">
+    <sortCondition ref="A2:A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1565,29 +951,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1595,593 +981,593 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,626 +1586,626 @@
         <v>3</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2827,626 +2213,626 @@
         <v>2</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>87</v>
+        <v>47</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
